--- a/Inputdateien/Input_Balingen_Linie24.xlsx
+++ b/Inputdateien/Input_Balingen_Linie24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C64F64-1716-41CD-9921-F5A774F49B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8123B4A3-CB6D-44E3-BD3B-3567C09E9998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F28F3D8-D0BE-4DDF-9378-0062E5CA07A9}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>zurückgelegte Distanz [km]</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Haltestelle Bgm.-Jetter-Str.</t>
   </si>
   <si>
-    <t>Haltestelle Hohe Str.</t>
-  </si>
-  <si>
     <t>Rechtsabbiegen auf Hohe Str.</t>
   </si>
   <si>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>Linksabbiegen auf Heselwanger Str. (Vorfahrt gewähren)</t>
+  </si>
+  <si>
+    <t>Haltestelle Hohe Str., danach langsam</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +486,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,6 +571,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5373E77D-BE44-47A8-9C7B-8B5971044521}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,11 +1002,11 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H70" si="0">IF(AND(E3=1,D3=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E3=1, ISBLANK(G3)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G3)), E3=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" ref="H3:H69" si="0">IF(AND(E3=1,D3=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E3=1, ISBLANK(G3)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G3)), E3=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -990,7 +1026,7 @@
         <v>Ja</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1032,7 +1068,7 @@
         <v>Ja</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1052,7 +1088,7 @@
         <v>Ja</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1092,11 +1128,11 @@
         <v>Ja</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="13">
         <v>0.43</v>
       </c>
       <c r="B10" s="4">
@@ -1108,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -1138,7 +1174,7 @@
         <v>Ja</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1170,9 +1206,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="4">
         <v>10</v>
       </c>
@@ -1181,7 +1215,7 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>13</v>
@@ -1196,9 +1230,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4">
         <v>10</v>
       </c>
@@ -1207,14 +1239,14 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="11">
         <v>1.26</v>
       </c>
       <c r="B15" s="4">
@@ -1251,9 +1283,12 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
       <c r="I16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1305,9 +1340,7 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4">
         <v>1</v>
       </c>
@@ -1316,14 +1349,14 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>2.27</v>
       </c>
       <c r="B20" s="4">
@@ -1331,9 +1364,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4">
         <v>1</v>
       </c>
@@ -1342,10 +1373,10 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1365,7 +1396,7 @@
         <v>Ja</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1385,7 +1416,7 @@
         <v>Ja</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1397,9 +1428,7 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="4">
         <v>1</v>
       </c>
@@ -1408,10 +1437,10 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1435,7 +1464,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="11">
         <v>3.2</v>
       </c>
       <c r="B25" s="4">
@@ -1447,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G25" s="4">
         <v>7</v>
@@ -1477,7 +1506,7 @@
         <v>Ja</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1509,9 +1538,7 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="4">
         <v>1</v>
       </c>
@@ -1520,7 +1547,7 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>20</v>
@@ -1535,9 +1562,7 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4">
         <v>1</v>
       </c>
@@ -1546,7 +1571,7 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>21</v>
@@ -1561,9 +1586,7 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
+      <c r="E30" s="4"/>
       <c r="F30" s="4">
         <v>1</v>
       </c>
@@ -1572,7 +1595,7 @@
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>22</v>
@@ -1595,7 +1618,7 @@
         <v>Ja</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1615,11 +1638,11 @@
         <v>Ja</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="13">
         <v>4.54</v>
       </c>
       <c r="B33" s="4">
@@ -1631,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G33" s="4">
         <v>11</v>
@@ -1657,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G34" s="4">
         <v>12</v>
@@ -1679,18 +1702,16 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G35" s="4">
         <v>13</v>
       </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>23</v>
@@ -1713,15 +1734,15 @@
         <v>Ja</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="14">
         <v>5.14</v>
       </c>
       <c r="B37" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1729,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G37" s="4">
         <v>14</v>
@@ -1739,15 +1760,15 @@
         <v>Ja</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>5.14</v>
+        <v>5.18</v>
       </c>
       <c r="B38" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1759,15 +1780,15 @@
         <v>Ja</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <v>5.18</v>
+        <v>5.31</v>
       </c>
       <c r="B39" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1779,15 +1800,15 @@
         <v>Ja</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
-        <v>5.31</v>
+      <c r="A40" s="8">
+        <v>5.3529999999999998</v>
       </c>
       <c r="B40" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1799,67 +1820,73 @@
         <v>Ja</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>5.3529999999999998</v>
+      <c r="A41" s="7">
+        <v>5.66</v>
       </c>
       <c r="B41" s="4">
         <v>50</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>10</v>
+      </c>
+      <c r="G41" s="4">
+        <v>15</v>
+      </c>
       <c r="H41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
-        <v>5.66</v>
+        <v>6.05</v>
       </c>
       <c r="B42" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4">
-        <v>15</v>
-      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>6.05</v>
+      <c r="A43" s="12">
+        <v>6.08</v>
       </c>
       <c r="B43" s="4">
         <v>15</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>20</v>
+      </c>
+      <c r="G43" s="4">
+        <v>16</v>
+      </c>
       <c r="H43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
@@ -1870,36 +1897,30 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
-        <v>6.08</v>
+        <v>6.16</v>
       </c>
       <c r="B44" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="4">
-        <v>10</v>
-      </c>
-      <c r="G44" s="4">
-        <v>16</v>
-      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
-        <v>6.16</v>
+        <v>6.22</v>
       </c>
       <c r="B45" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1911,15 +1932,15 @@
         <v>Ja</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
-        <v>6.22</v>
+        <v>6.26</v>
       </c>
       <c r="B46" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1931,12 +1952,12 @@
         <v>Ja</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
-        <v>6.26</v>
+        <v>6.6</v>
       </c>
       <c r="B47" s="4">
         <v>30</v>
@@ -1944,48 +1965,46 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>17</v>
+      </c>
       <c r="H47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <v>6.6</v>
+      <c r="A48" s="8">
+        <v>6.8</v>
       </c>
       <c r="B48" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4">
-        <v>17</v>
-      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
-        <v>6.8</v>
+        <v>6.8529999999999998</v>
       </c>
       <c r="B49" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1997,12 +2016,12 @@
         <v>Ja</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
-        <v>6.8529999999999998</v>
+      <c r="A50" s="7">
+        <v>7.03</v>
       </c>
       <c r="B50" s="4">
         <v>50</v>
@@ -2010,19 +2029,23 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>18</v>
+      </c>
       <c r="H50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
-        <v>7.03</v>
+        <v>7.41</v>
       </c>
       <c r="B51" s="4">
         <v>50</v>
@@ -2033,56 +2056,50 @@
         <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G51" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>7.41</v>
+        <v>7.62</v>
       </c>
       <c r="B52" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4">
-        <v>10</v>
-      </c>
-      <c r="G52" s="4">
-        <v>19</v>
-      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>7.62</v>
+        <v>7.92</v>
       </c>
       <c r="B53" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
+      <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -2091,15 +2108,15 @@
         <v>Ja</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
-        <v>7.92</v>
+      <c r="A54" s="10">
+        <v>7.96</v>
       </c>
       <c r="B54" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2111,12 +2128,12 @@
         <v>Ja</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
-        <v>7.96</v>
+      <c r="A55" s="7">
+        <v>7.99</v>
       </c>
       <c r="B55" s="4">
         <v>30</v>
@@ -2124,48 +2141,46 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>20</v>
+      </c>
       <c r="H55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>7.99</v>
+        <v>8.36</v>
       </c>
       <c r="B56" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="4">
-        <v>20</v>
-      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
       <c r="H56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
-        <v>8.36</v>
+      <c r="A57" s="8">
+        <v>8.41</v>
       </c>
       <c r="B57" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2177,12 +2192,12 @@
         <v>Ja</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
-        <v>8.41</v>
+      <c r="A58" s="7">
+        <v>8.42</v>
       </c>
       <c r="B58" s="4">
         <v>50</v>
@@ -2190,48 +2205,46 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4">
+        <v>21</v>
+      </c>
       <c r="H58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>8.42</v>
+        <v>8.69</v>
       </c>
       <c r="B59" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4">
-        <v>21</v>
-      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
       <c r="H59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
-        <v>8.69</v>
+      <c r="A60" s="8">
+        <v>8.8140000000000001</v>
       </c>
       <c r="B60" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2243,84 +2256,82 @@
         <v>Ja</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
-        <v>8.8140000000000001</v>
+      <c r="A61" s="7">
+        <v>9.0500000000000007</v>
       </c>
       <c r="B61" s="4">
         <v>50</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>10</v>
+      </c>
+      <c r="G61" s="4">
+        <v>22</v>
+      </c>
       <c r="H61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="B62" s="4">
-        <v>50</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="A62" s="8">
+        <v>9.44</v>
+      </c>
+      <c r="B62" s="9">
+        <v>50</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="9">
         <v>10</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="9">
         <v>22</v>
       </c>
       <c r="H62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>30</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
-        <v>9.44</v>
+        <v>9.56</v>
       </c>
       <c r="B63" s="9">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="5">
-        <v>1</v>
-      </c>
-      <c r="F63" s="9">
-        <v>10</v>
-      </c>
-      <c r="G63" s="9">
-        <v>22</v>
-      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
-        <v>9.56</v>
+        <v>9.61</v>
       </c>
       <c r="B64" s="9">
         <v>1</v>
@@ -2328,94 +2339,92 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
+      <c r="F64" s="9">
+        <v>10</v>
+      </c>
+      <c r="G64" s="9">
+        <v>23</v>
+      </c>
       <c r="H64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
-        <v>9.61</v>
+        <v>9.6839999999999993</v>
       </c>
       <c r="B65" s="9">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="5">
-        <v>1</v>
-      </c>
-      <c r="F65" s="9">
-        <v>10</v>
-      </c>
-      <c r="G65" s="9">
-        <v>23</v>
-      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
       <c r="H65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
-        <v>9.6839999999999993</v>
+        <v>9.84</v>
       </c>
       <c r="B66" s="9">
         <v>50</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+      <c r="F66" s="9">
+        <v>10</v>
+      </c>
+      <c r="G66" s="9">
+        <v>24</v>
+      </c>
       <c r="H66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
-        <v>9.84</v>
+        <v>9.86</v>
       </c>
       <c r="B67" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="9">
-        <v>1</v>
-      </c>
-      <c r="F67" s="9">
-        <v>10</v>
-      </c>
-      <c r="G67" s="9">
-        <v>24</v>
-      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
-        <v>9.86</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="B68" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -2427,15 +2436,15 @@
         <v>Ja</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
-        <v>9.8800000000000008</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="B69" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -2447,32 +2456,34 @@
         <v>Ja</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
-        <v>10.029999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="B70" s="9">
         <v>50</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="D70" s="9">
+        <v>1</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H70:H74" si="1">IF(AND(E70=1,D70=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E70=1, ISBLANK(G70)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G70)), E70=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
-        <v>10.11</v>
+        <v>10.26</v>
       </c>
       <c r="B71" s="9">
         <v>50</v>
@@ -2485,7 +2496,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="4" t="str">
-        <f t="shared" ref="H71:H75" si="1">IF(AND(E71=1,D71=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E71=1, ISBLANK(G71)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G71)), E71=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I71" s="5" t="s">
@@ -2494,15 +2505,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
-        <v>10.26</v>
+        <v>10.3</v>
       </c>
       <c r="B72" s="9">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C72" s="9"/>
-      <c r="D72" s="9">
-        <v>1</v>
-      </c>
+      <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -2511,15 +2520,15 @@
         <v>Ja</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
-        <v>10.3</v>
+        <v>10.355</v>
       </c>
       <c r="B73" s="9">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -2531,15 +2540,15 @@
         <v>Ja</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
-        <v>10.355</v>
+        <v>10.49</v>
       </c>
       <c r="B74" s="9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2551,31 +2560,11 @@
         <v>Ja</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
-        <v>10.49</v>
-      </c>
-      <c r="B75" s="9">
-        <v>0</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Ja</v>
-      </c>
-      <c r="I75" s="5" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H75">
+  <conditionalFormatting sqref="H1:H74">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",H1)))</formula>
     </cfRule>
@@ -2584,23 +2573,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B62" xr:uid="{CA0D034A-201C-4A03-9951-A6ACD3EDA1DA}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B61" xr:uid="{CA0D034A-201C-4A03-9951-A6ACD3EDA1DA}">
       <formula1>0.1</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C62" xr:uid="{3DADC39B-828F-4998-9642-228BC5A2A10F}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C61" xr:uid="{3DADC39B-828F-4998-9642-228BC5A2A10F}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D62" xr:uid="{038BE05E-1E44-4616-A735-EAE1841C04F6}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D61" xr:uid="{038BE05E-1E44-4616-A735-EAE1841C04F6}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E62" xr:uid="{4F542BD9-0983-4225-883B-1B5D6211243C}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E61" xr:uid="{4F542BD9-0983-4225-883B-1B5D6211243C}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="G1:G62" xr:uid="{F5778630-7695-48CC-8A33-BC58603319DA}">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="G1:G61" xr:uid="{F5778630-7695-48CC-8A33-BC58603319DA}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>

--- a/Inputdateien/Input_Balingen_Linie24.xlsx
+++ b/Inputdateien/Input_Balingen_Linie24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8123B4A3-CB6D-44E3-BD3B-3567C09E9998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA5EBDE-0A3F-4550-B4E1-5B3DBD2EA94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F28F3D8-D0BE-4DDF-9378-0062E5CA07A9}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,8 +469,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,19 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,7 +582,13 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5373E77D-BE44-47A8-9C7B-8B5971044521}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,7 +942,7 @@
     <col min="6" max="6" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
@@ -1132,7 +1138,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>0.43</v>
       </c>
       <c r="B10" s="4">
@@ -1153,7 +1159,7 @@
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1485,7 +1491,7 @@
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1642,7 +1648,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
+      <c r="A33" s="11">
         <v>4.54</v>
       </c>
       <c r="B33" s="4">
@@ -1668,7 +1674,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="12">
         <v>4.76</v>
       </c>
       <c r="B34" s="4">
@@ -1676,9 +1682,7 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="4">
         <v>10</v>
       </c>
@@ -1687,7 +1691,7 @@
       </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>37</v>
@@ -1738,7 +1742,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>5.14</v>
       </c>
       <c r="B37" s="4">
@@ -1824,7 +1828,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="13">
         <v>5.66</v>
       </c>
       <c r="B41" s="4">
@@ -1870,7 +1874,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+      <c r="A43" s="13">
         <v>6.08</v>
       </c>
       <c r="B43" s="4">
@@ -1882,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G43" s="4">
         <v>16</v>
@@ -2044,7 +2048,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+      <c r="A51" s="13">
         <v>7.41</v>
       </c>
       <c r="B51" s="4">
@@ -2056,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G51" s="4">
         <v>19</v>
@@ -2065,7 +2069,7 @@
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2113,7 +2117,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
-        <v>7.96</v>
+        <v>7.97</v>
       </c>
       <c r="B54" s="4">
         <v>30</v>
@@ -2177,7 +2181,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
-        <v>8.41</v>
+        <v>8.4030000000000005</v>
       </c>
       <c r="B57" s="4">
         <v>50</v>
@@ -2241,7 +2245,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
-        <v>8.8140000000000001</v>
+        <v>8.8249999999999993</v>
       </c>
       <c r="B60" s="4">
         <v>50</v>
@@ -2260,7 +2264,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
+      <c r="A61" s="14">
         <v>9.0500000000000007</v>
       </c>
       <c r="B61" s="4">
@@ -2374,7 +2378,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
+      <c r="A66" s="12">
         <v>9.84</v>
       </c>
       <c r="B66" s="9">
@@ -2386,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G66" s="9">
         <v>24</v>
@@ -2395,7 +2399,7 @@
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2544,7 +2548,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
+      <c r="A74" s="12">
         <v>10.49</v>
       </c>
       <c r="B74" s="9">

--- a/Inputdateien/Input_Balingen_Linie24.xlsx
+++ b/Inputdateien/Input_Balingen_Linie24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA5EBDE-0A3F-4550-B4E1-5B3DBD2EA94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EBE7DF-1D02-4F15-B9A1-35356BB30B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F28F3D8-D0BE-4DDF-9378-0062E5CA07A9}"/>
+    <workbookView xWindow="-28920" yWindow="-6750" windowWidth="29040" windowHeight="15840" xr2:uid="{7F28F3D8-D0BE-4DDF-9378-0062E5CA07A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>zurückgelegte Distanz [km]</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Haltestelle Krankenhaus</t>
   </si>
   <si>
-    <t>vsl. Ende des DWPT-Abschnitts</t>
-  </si>
-  <si>
     <t>Haltestelle Heselwanger Str./Zeppelinstr.</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
     <t>Rechtsabbiegen auf Paulinenstr.</t>
   </si>
   <si>
-    <t>Ende des Kreisverekhrs</t>
-  </si>
-  <si>
     <t>Ankunft Haltestelle Hbf</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
     <t>Linksabbiegen in Bebeltstr., dann Einfahrt in ZOB</t>
   </si>
   <si>
-    <t>Bahnhofstr., Tempolimit 50 km/h</t>
-  </si>
-  <si>
     <t>neues Tempolimit 30 km/h</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>neues Tempolimit 50 km/h</t>
   </si>
   <si>
-    <t>Abbremsen???</t>
-  </si>
-  <si>
     <t>Vorfahrt gewähren</t>
   </si>
   <si>
@@ -411,6 +399,45 @@
   </si>
   <si>
     <t>Haltestelle Hohe Str., danach langsam</t>
+  </si>
+  <si>
+    <t>Start DWPT</t>
+  </si>
+  <si>
+    <t>Ende DWPT-Zone in ZOB</t>
+  </si>
+  <si>
+    <t>Ende DWPT, Kreisverkehr</t>
+  </si>
+  <si>
+    <t>Bahnhofstr., Tempolimit 50 km/h, Beginn DWPT</t>
+  </si>
+  <si>
+    <t>Ende DWPT</t>
+  </si>
+  <si>
+    <t>Linksabbiegen auf Tübinger Str., Start DWPT</t>
+  </si>
+  <si>
+    <t>Start DWPT-Zone ZOB</t>
+  </si>
+  <si>
+    <t>Ende des Kreisverekhrs, Start DWPT</t>
+  </si>
+  <si>
+    <r>
+      <t>Haltestelle Sparkasse/Paulinenstr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Start DWPT</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -476,7 +503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,12 +524,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -510,6 +531,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,16 +618,22 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5373E77D-BE44-47A8-9C7B-8B5971044521}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,7 +987,7 @@
     <col min="6" max="6" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
@@ -982,45 +1027,48 @@
       <c r="B2" s="4">
         <v>15</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
       <c r="H2" s="4" t="str">
         <f>IF(AND(E2=1,D2=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E2=1, ISBLANK(G2)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G2)), E2=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H69" si="0">IF(AND(E3=1,D3=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E3=1, ISBLANK(G3)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G3)), E3=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
-        <v>Ja</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>7.0000000000000007E-2</v>
+      <c r="A4" s="7">
+        <v>5.5E-2</v>
       </c>
       <c r="B4" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1028,24 +1076,24 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H4:H18" si="0">IF(AND(E4=1,D4=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E4=1, ISBLANK(G4)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G4)), E4=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>0.11</v>
+      <c r="A5" s="8">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B5" s="4">
         <v>50</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1054,18 +1102,22 @@
         <v>Ja</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="B6" s="4">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1074,17 +1126,19 @@
         <v>Ja</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="B7" s="4">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1099,12 +1153,14 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="B8" s="4">
         <v>15</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1114,17 +1170,19 @@
         <v>Ja</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="B9" s="4">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1134,63 +1192,67 @@
         <v>Ja</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>0.43</v>
+      <c r="A10" s="7">
+        <v>0.41</v>
       </c>
       <c r="B10" s="4">
         <v>50</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>11</v>
+      <c r="I10" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>0.48</v>
+      <c r="A11" s="12">
+        <v>0.43</v>
       </c>
       <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>39</v>
+      <c r="I11" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>0.57499999999999996</v>
+      <c r="A12" s="16">
+        <v>0.5</v>
       </c>
       <c r="B12" s="4">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1200,131 +1262,145 @@
         <v>Ja</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>0.66</v>
+      <c r="A13" s="16">
+        <v>0.53</v>
       </c>
       <c r="B13" s="4">
-        <v>50</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2</v>
-      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <v>Ja</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>0.85</v>
+      <c r="A14" s="16">
+        <v>0.57699999999999996</v>
       </c>
       <c r="B14" s="4">
         <v>50</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4">
-        <v>3</v>
-      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <v>Ja</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>1.26</v>
+      <c r="A15" s="16">
+        <v>0.66</v>
       </c>
       <c r="B15" s="4">
         <v>50</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>1.34</v>
+      <c r="A16" s="16">
+        <v>0.85</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>1.38</v>
+      <c r="A17" s="12">
+        <v>1.26</v>
       </c>
       <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>20</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3</v>
+      </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>1.4750000000000001</v>
+      <c r="A18" s="16">
+        <v>1.37</v>
       </c>
       <c r="B18" s="4">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1334,36 +1410,31 @@
         <v>Ja</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>1.85</v>
+      <c r="A19" s="16">
+        <v>1.377</v>
       </c>
       <c r="B19" s="4">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>4</v>
-      </c>
-      <c r="H19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
-      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>2.27</v>
+      <c r="A20" s="16">
+        <v>1.49</v>
       </c>
       <c r="B20" s="4">
         <v>50</v>
@@ -1371,87 +1442,87 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>5</v>
-      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <f t="shared" ref="H20:H51" si="1">IF(AND(E20=1,D20=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E20=1, ISBLANK(G20)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G20)), E20=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <v>Ja</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>2.4700000000000002</v>
+      <c r="A21" s="16">
+        <v>1.85</v>
       </c>
       <c r="B21" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
       <c r="H21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
+        <f t="shared" si="1"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>2.61</v>
+      <c r="A22" s="16">
+        <v>2.27</v>
       </c>
       <c r="B22" s="4">
         <v>50</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
       <c r="H22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>2.77</v>
+      <c r="A23" s="16">
+        <v>2.4700000000000002</v>
       </c>
       <c r="B23" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>6</v>
-      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>2.81</v>
+      <c r="A24" s="16">
+        <v>2.6120000000000001</v>
       </c>
       <c r="B24" s="4">
         <v>50</v>
@@ -1462,45 +1533,39 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>3.2</v>
+      <c r="A25" s="16">
+        <v>2.77</v>
       </c>
       <c r="B25" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>20</v>
-      </c>
-      <c r="G25" s="4">
-        <v>7</v>
-      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>3.28</v>
+      <c r="A26" s="16">
+        <v>2.81</v>
       </c>
       <c r="B26" s="4">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1508,60 +1573,62 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>3.39</v>
+      <c r="A27" s="11">
+        <v>3.2</v>
       </c>
       <c r="B27" s="4">
         <v>50</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>20</v>
+      </c>
+      <c r="G27" s="4">
+        <v>7</v>
+      </c>
       <c r="H27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
-        <v>3.53</v>
+      <c r="A28" s="16">
+        <v>3.28</v>
       </c>
       <c r="B28" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4">
-        <v>8</v>
-      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
-        <v>3.85</v>
+      <c r="A29" s="16">
+        <v>3.39</v>
       </c>
       <c r="B29" s="4">
         <v>50</v>
@@ -1569,67 +1636,69 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4">
-        <v>9</v>
-      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>4.08</v>
+      <c r="A30" s="16">
+        <v>3.53</v>
       </c>
       <c r="B30" s="4">
         <v>50</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
       <c r="F30" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G30" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <v>4.33</v>
+      <c r="A31" s="16">
+        <v>3.85</v>
       </c>
       <c r="B31" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="4">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4">
+        <v>9</v>
+      </c>
       <c r="H31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
+        <f t="shared" si="1"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>4.4589999999999996</v>
+      <c r="A32" s="16">
+        <v>4.08</v>
       </c>
       <c r="B32" s="4">
         <v>50</v>
@@ -1638,92 +1707,86 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4">
+        <v>10</v>
+      </c>
       <c r="H32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
+        <f t="shared" si="1"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
-        <v>4.54</v>
+      <c r="A33" s="16">
+        <v>4.33</v>
       </c>
       <c r="B33" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>10</v>
-      </c>
-      <c r="G33" s="4">
-        <v>11</v>
-      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
-        <v>4.76</v>
+      <c r="A34" s="8">
+        <v>4.4550000000000001</v>
       </c>
       <c r="B34" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4">
-        <v>10</v>
-      </c>
-      <c r="G34" s="4">
-        <v>12</v>
-      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
-        <v>4.9400000000000004</v>
+      <c r="A35" s="17">
+        <v>4.54</v>
       </c>
       <c r="B35" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
       <c r="F35" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G35" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
-        <v>5.1100000000000003</v>
+      <c r="A36" s="16">
+        <v>4.76</v>
       </c>
       <c r="B36" s="4">
         <v>30</v>
@@ -1731,45 +1794,47 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="4">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4">
+        <v>12</v>
+      </c>
       <c r="H36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
+        <f t="shared" si="1"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
-        <v>5.14</v>
+      <c r="A37" s="15">
+        <v>4.9400000000000004</v>
       </c>
       <c r="B37" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G37" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
+        <f t="shared" si="1"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>5.18</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="B38" s="4">
         <v>30</v>
@@ -1780,39 +1845,45 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
-        <v>5.31</v>
+      <c r="A39" s="15">
+        <v>5.14</v>
       </c>
       <c r="B39" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>20</v>
+      </c>
+      <c r="G39" s="4">
+        <v>14</v>
+      </c>
       <c r="H39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
-        <v>5.3529999999999998</v>
+      <c r="A40" s="7">
+        <v>5.18</v>
       </c>
       <c r="B40" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1820,45 +1891,39 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>5.66</v>
+      <c r="A41" s="7">
+        <v>5.31</v>
       </c>
       <c r="B41" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4">
-        <v>10</v>
-      </c>
-      <c r="G41" s="4">
-        <v>15</v>
-      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
       <c r="H41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
-        <v>6.05</v>
+      <c r="A42" s="8">
+        <v>5.3620000000000001</v>
       </c>
       <c r="B42" s="4">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1866,45 +1931,43 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
-        <v>6.08</v>
+      <c r="A43" s="17">
+        <v>5.66</v>
       </c>
       <c r="B43" s="4">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G43" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
-        <v>6.16</v>
+        <v>6.05</v>
       </c>
       <c r="B44" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1912,16 +1975,16 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>6.22</v>
+      <c r="A45" s="17">
+        <v>6.08</v>
       </c>
       <c r="B45" s="4">
         <v>15</v>
@@ -1929,19 +1992,23 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="F45" s="4">
+        <v>20</v>
+      </c>
+      <c r="G45" s="4">
+        <v>16</v>
+      </c>
       <c r="H45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
-        <v>6.26</v>
+        <v>6.16</v>
       </c>
       <c r="B46" s="4">
         <v>30</v>
@@ -1952,43 +2019,39 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
-        <v>6.6</v>
+        <v>6.22</v>
       </c>
       <c r="B47" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4">
-        <v>17</v>
-      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
       <c r="H47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
-        <v>6.8</v>
+      <c r="A48" s="7">
+        <v>6.26</v>
       </c>
       <c r="B48" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1996,175 +2059,169 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
-        <v>6.8529999999999998</v>
+      <c r="A49" s="7">
+        <v>6.6</v>
       </c>
       <c r="B49" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4">
+        <v>17</v>
+      </c>
       <c r="H49" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
+        <f t="shared" si="1"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>7.03</v>
+      <c r="A50" s="8">
+        <v>6.8</v>
       </c>
       <c r="B50" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="4">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4">
-        <v>18</v>
-      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
-        <v>7.41</v>
+      <c r="A51" s="8">
+        <v>6.85</v>
       </c>
       <c r="B51" s="4">
         <v>50</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4">
-        <v>20</v>
-      </c>
-      <c r="G51" s="4">
-        <v>19</v>
-      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>7.62</v>
+        <v>7.03</v>
       </c>
       <c r="B52" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4">
+        <v>18</v>
+      </c>
       <c r="H52" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
+        <f t="shared" ref="H52:H83" si="2">IF(AND(E52=1,D52=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E52=1, ISBLANK(G52)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G52)), E52=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>7.92</v>
+      <c r="A53" s="17">
+        <v>7.41</v>
       </c>
       <c r="B53" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="F53" s="4">
+        <v>20</v>
+      </c>
+      <c r="G53" s="4">
+        <v>19</v>
+      </c>
       <c r="H53" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
-        <v>7.97</v>
+      <c r="A54" s="7">
+        <v>7.62</v>
       </c>
       <c r="B54" s="4">
         <v>30</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ja</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>7.99</v>
+        <v>7.92</v>
       </c>
       <c r="B55" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4">
-        <v>1</v>
-      </c>
-      <c r="G55" s="4">
-        <v>20</v>
-      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
       <c r="H55" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <f t="shared" si="2"/>
+        <v>Ja</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <v>8.36</v>
+      <c r="A56" s="10">
+        <v>7.9770000000000003</v>
       </c>
       <c r="B56" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2172,63 +2229,61 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ja</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
-        <v>8.4030000000000005</v>
+      <c r="A57" s="7">
+        <v>7.99</v>
       </c>
       <c r="B57" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4">
+        <v>20</v>
+      </c>
       <c r="H57" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
+        <f t="shared" si="2"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
-        <v>8.42</v>
+        <v>8.35</v>
       </c>
       <c r="B58" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="G58" s="4">
-        <v>21</v>
-      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <f t="shared" si="2"/>
+        <v>Ja</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
-        <v>8.69</v>
+      <c r="A59" s="8">
+        <v>8.3949999999999996</v>
       </c>
       <c r="B59" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -2236,16 +2291,16 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ja</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
-        <v>8.8249999999999993</v>
+      <c r="A60" s="7">
+        <v>8.42</v>
       </c>
       <c r="B60" s="4">
         <v>50</v>
@@ -2254,198 +2309,208 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="G60" s="4">
+        <v>21</v>
+      </c>
       <c r="H60" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
+        <f t="shared" si="2"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="14">
-        <v>9.0500000000000007</v>
+      <c r="A61" s="7">
+        <v>8.68</v>
       </c>
       <c r="B61" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>10</v>
-      </c>
-      <c r="G61" s="4">
-        <v>22</v>
-      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
       <c r="H61" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ja</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
-        <v>9.44</v>
-      </c>
-      <c r="B62" s="9">
-        <v>50</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="9">
-        <v>10</v>
-      </c>
-      <c r="G62" s="9">
-        <v>22</v>
-      </c>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B62" s="4">
+        <v>50</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
       <c r="H62" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
-        <v>9.56</v>
-      </c>
-      <c r="B63" s="9">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
+        <v>8.89</v>
+      </c>
+      <c r="B63" s="4">
+        <v>50</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
       <c r="H63" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
-        <v>9.61</v>
-      </c>
-      <c r="B64" s="9">
-        <v>1</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="9">
-        <v>10</v>
-      </c>
-      <c r="G64" s="9">
-        <v>23</v>
+      <c r="A64" s="18">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="B64" s="4">
+        <v>50</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
+        <v>20</v>
+      </c>
+      <c r="G64" s="4">
+        <v>22</v>
       </c>
       <c r="H64" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
-        <v>9.6839999999999993</v>
+        <v>9.44</v>
       </c>
       <c r="B65" s="9">
         <v>50</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="9">
+        <v>1</v>
+      </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="9">
+        <v>20</v>
+      </c>
+      <c r="G65" s="9">
+        <v>22</v>
+      </c>
       <c r="H65" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ja</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="12">
-        <v>9.84</v>
+      <c r="A66" s="8">
+        <v>9.58</v>
       </c>
       <c r="B66" s="9">
-        <v>50</v>
-      </c>
-      <c r="C66" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="C66" s="9">
+        <v>1</v>
+      </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9">
-        <v>1</v>
-      </c>
-      <c r="F66" s="9">
-        <v>20</v>
-      </c>
-      <c r="G66" s="9">
-        <v>24</v>
-      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
       <c r="H66" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
-        <v>9.86</v>
+        <v>9.61</v>
       </c>
       <c r="B67" s="9">
-        <v>15</v>
-      </c>
-      <c r="C67" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="C67" s="9">
+        <v>1</v>
+      </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="9">
+        <v>20</v>
+      </c>
+      <c r="G67" s="9">
+        <v>23</v>
+      </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
+        <f t="shared" si="2"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
-        <v>9.8800000000000008</v>
+        <v>9.69</v>
       </c>
       <c r="B68" s="9">
-        <v>30</v>
-      </c>
-      <c r="C68" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="C68" s="9">
+        <v>0</v>
+      </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ja</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
-        <v>10.029999999999999</v>
+        <v>9.6969999999999992</v>
       </c>
       <c r="B69" s="9">
         <v>50</v>
@@ -2456,119 +2521,259 @@
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ja</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="8">
-        <v>10.11</v>
+      <c r="A70" s="12">
+        <v>9.84</v>
       </c>
       <c r="B70" s="9">
         <v>50</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="D70" s="9">
-        <v>1</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9">
+        <v>1</v>
+      </c>
+      <c r="F70" s="9">
+        <v>20</v>
+      </c>
+      <c r="G70" s="9">
+        <v>24</v>
+      </c>
       <c r="H70" s="4" t="str">
-        <f t="shared" ref="H70:H74" si="1">IF(AND(E70=1,D70=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E70=1, ISBLANK(G70)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G70)), E70=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
-        <v>Ja</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
-        <v>10.26</v>
+        <v>9.86</v>
       </c>
       <c r="B71" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C71" s="9"/>
-      <c r="D71" s="9">
-        <v>1</v>
-      </c>
+      <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ja</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
-        <v>10.3</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="B72" s="9">
-        <v>1</v>
-      </c>
-      <c r="C72" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="C72" s="9">
+        <v>1</v>
+      </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ja</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
-        <v>10.355</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="B73" s="9">
-        <v>15</v>
-      </c>
-      <c r="C73" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="C73" s="9">
+        <v>1</v>
+      </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ja</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="12">
-        <v>10.49</v>
+      <c r="A74" s="8">
+        <v>10.11</v>
       </c>
       <c r="B74" s="9">
-        <v>0</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="C74" s="9">
+        <v>1</v>
+      </c>
+      <c r="D74" s="9">
+        <v>1</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ja</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>10.26</v>
+      </c>
+      <c r="B75" s="9">
+        <v>50</v>
+      </c>
+      <c r="C75" s="9">
+        <v>1</v>
+      </c>
+      <c r="D75" s="9">
+        <v>1</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>10.28</v>
+      </c>
+      <c r="B76" s="9">
+        <v>50</v>
+      </c>
+      <c r="C76" s="9">
+        <v>0</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>10.31</v>
+      </c>
+      <c r="B77" s="9">
+        <v>1</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>10.375</v>
+      </c>
+      <c r="B78" s="9">
+        <v>15</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>10.44</v>
+      </c>
+      <c r="B79" s="9">
+        <v>15</v>
+      </c>
+      <c r="C79" s="9">
+        <v>1</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="12">
+        <v>10.49</v>
+      </c>
+      <c r="B80" s="9">
+        <v>0</v>
+      </c>
+      <c r="C80" s="9">
+        <v>1</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H74">
+  <conditionalFormatting sqref="H1:H80">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",H1)))</formula>
     </cfRule>
@@ -2577,28 +2782,29 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B61" xr:uid="{CA0D034A-201C-4A03-9951-A6ACD3EDA1DA}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B64" xr:uid="{CA0D034A-201C-4A03-9951-A6ACD3EDA1DA}">
       <formula1>0.1</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C61" xr:uid="{3DADC39B-828F-4998-9642-228BC5A2A10F}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C64" xr:uid="{3DADC39B-828F-4998-9642-228BC5A2A10F}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D61" xr:uid="{038BE05E-1E44-4616-A735-EAE1841C04F6}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D64" xr:uid="{038BE05E-1E44-4616-A735-EAE1841C04F6}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E61" xr:uid="{4F542BD9-0983-4225-883B-1B5D6211243C}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E64" xr:uid="{4F542BD9-0983-4225-883B-1B5D6211243C}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="G1:G61" xr:uid="{F5778630-7695-48CC-8A33-BC58603319DA}">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="G1:G64" xr:uid="{F5778630-7695-48CC-8A33-BC58603319DA}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Inputdateien/Input_Balingen_Linie24.xlsx
+++ b/Inputdateien/Input_Balingen_Linie24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EBE7DF-1D02-4F15-B9A1-35356BB30B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2958D1-AA4F-4AD2-8583-0AB316682279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6750" windowWidth="29040" windowHeight="15840" xr2:uid="{7F28F3D8-D0BE-4DDF-9378-0062E5CA07A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F28F3D8-D0BE-4DDF-9378-0062E5CA07A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>Fabio Frank</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2F2D1A95-4A43-4AE3-A06C-E2C7E296AB77}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0D9E64F1-35F0-4CC4-88D7-385CF15E1B6E}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5F0E7A2E-9824-42F6-9F14-C72E0D30A133}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{09255662-D9E2-44B2-AF38-8A823BB6A369}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BD129EAF-7602-4436-BE81-C087D15A3798}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B01A925B-FB5C-4AE6-9CBF-C8A078A1B158}">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4D79B18A-BA22-424A-BCC0-16A349A8F9FF}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C809E499-322F-4C56-8153-854211645CDA}">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{306BF94A-00C7-4529-96BF-CB60E366793E}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0298307B-AE06-4AC2-92C2-99BA20851F1F}">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{A6F39B48-942B-4CF3-B54E-B45CE51AE779}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{27629888-1B01-4080-B83F-8AE15415B671}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>zurückgelegte Distanz [km]</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>Kommentar</t>
-  </si>
-  <si>
-    <t>Kreisverkehr</t>
   </si>
   <si>
     <t>Ampel</t>
@@ -438,6 +435,9 @@
       </rPr>
       <t>, Start DWPT</t>
     </r>
+  </si>
+  <si>
+    <t>Kreisverkehr, Ende DWPT</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,42 +513,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,46 +558,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,24 +908,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5373E77D-BE44-47A8-9C7B-8B5971044521}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="6"/>
+    <col min="1" max="1" width="24.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1021,7 +958,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" s="4">
@@ -1041,11 +978,11 @@
         <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>0.05</v>
       </c>
       <c r="B3" s="4">
@@ -1060,11 +997,11 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>5.5E-2</v>
       </c>
       <c r="B4" s="4">
@@ -1076,15 +1013,15 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="str">
-        <f t="shared" ref="H4:H18" si="0">IF(AND(E4=1,D4=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E4=1, ISBLANK(G4)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G4)), E4=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" ref="H4:H19" si="0">IF(AND(E4=1,D4=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E4=1, ISBLANK(G4)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G4)), E4=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B5" s="4">
@@ -1102,11 +1039,11 @@
         <v>Ja</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>0.11</v>
       </c>
       <c r="B6" s="4">
@@ -1126,11 +1063,11 @@
         <v>Ja</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>0.17</v>
       </c>
       <c r="B7" s="4">
@@ -1148,11 +1085,11 @@
         <v>Ja</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>0.33</v>
       </c>
       <c r="B8" s="4">
@@ -1170,11 +1107,11 @@
         <v>Ja</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>0.37</v>
       </c>
       <c r="B9" s="4">
@@ -1192,11 +1129,11 @@
         <v>Ja</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>0.41</v>
       </c>
       <c r="B10" s="4">
@@ -1212,11 +1149,11 @@
         <v>Ja</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="6">
         <v>0.43</v>
       </c>
       <c r="B11" s="4">
@@ -1239,12 +1176,12 @@
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>64</v>
+      <c r="I11" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="6">
         <v>0.5</v>
       </c>
       <c r="B12" s="4">
@@ -1262,11 +1199,11 @@
         <v>Ja</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="6">
         <v>0.53</v>
       </c>
       <c r="B13" s="4">
@@ -1284,11 +1221,11 @@
         <v>Ja</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="6">
         <v>0.57699999999999996</v>
       </c>
       <c r="B14" s="4">
@@ -1306,11 +1243,11 @@
         <v>Ja</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="6">
         <v>0.66</v>
       </c>
       <c r="B15" s="4">
@@ -1321,9 +1258,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4">
-        <v>20</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4">
         <v>2</v>
       </c>
@@ -1332,11 +1267,11 @@
         <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="6">
         <v>0.85</v>
       </c>
       <c r="B16" s="4">
@@ -1346,25 +1281,21 @@
         <v>1</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20</v>
-      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="4">
         <v>3</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="6">
         <v>1.26</v>
       </c>
       <c r="B17" s="4">
@@ -1374,9 +1305,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4">
         <v>20</v>
       </c>
@@ -1385,56 +1314,54 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>1.37</v>
+      <c r="A18" s="6">
+        <v>1.2769999999999999</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Ja</v>
-      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
-        <v>1.377</v>
+      <c r="A19" s="6">
+        <v>1.3560000000000001</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
       <c r="I19" s="4" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
-        <v>1.49</v>
+      <c r="A20" s="6">
+        <v>1.48</v>
       </c>
       <c r="B20" s="4">
         <v>50</v>
@@ -1445,15 +1372,15 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="str">
-        <f t="shared" ref="H20:H51" si="1">IF(AND(E20=1,D20=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E20=1, ISBLANK(G20)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G20)), E20=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" ref="H20:H81" si="1">IF(AND(E20=1,D20=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E20=1, ISBLANK(G20)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G20)), E20=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="6">
         <v>1.85</v>
       </c>
       <c r="B21" s="4">
@@ -1471,11 +1398,11 @@
         <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      <c r="A22" s="6">
         <v>2.27</v>
       </c>
       <c r="B22" s="4">
@@ -1483,25 +1410,21 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>20</v>
-      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="4">
         <v>5</v>
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Ja</v>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="A23" s="6">
         <v>2.4700000000000002</v>
       </c>
       <c r="B23" s="4">
@@ -1517,12 +1440,12 @@
         <v>Ja</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
-        <v>2.6120000000000001</v>
+      <c r="A24" s="6">
+        <v>2.61</v>
       </c>
       <c r="B24" s="4">
         <v>50</v>
@@ -1537,11 +1460,11 @@
         <v>Ja</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="A25" s="6">
         <v>2.77</v>
       </c>
       <c r="B25" s="4">
@@ -1557,11 +1480,11 @@
         <v>Ja</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+      <c r="A26" s="6">
         <v>2.81</v>
       </c>
       <c r="B26" s="4">
@@ -1577,11 +1500,11 @@
         <v>Ja</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27" s="6">
         <v>3.2</v>
       </c>
       <c r="B27" s="4">
@@ -1602,12 +1525,12 @@
         <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
-      <c r="I27" s="14" t="s">
-        <v>18</v>
+      <c r="I27" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+      <c r="A28" s="6">
         <v>3.28</v>
       </c>
       <c r="B28" s="4">
@@ -1623,11 +1546,11 @@
         <v>Ja</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+      <c r="A29" s="6">
         <v>3.39</v>
       </c>
       <c r="B29" s="4">
@@ -1643,11 +1566,11 @@
         <v>Ja</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
+      <c r="A30" s="6">
         <v>3.53</v>
       </c>
       <c r="B30" s="4">
@@ -1669,11 +1592,11 @@
         <v>Ja</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+      <c r="A31" s="6">
         <v>3.85</v>
       </c>
       <c r="B31" s="4">
@@ -1681,7 +1604,9 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
       <c r="F31" s="4">
         <v>20</v>
       </c>
@@ -1690,14 +1615,14 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <v>Ja</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+      <c r="A32" s="6">
         <v>4.08</v>
       </c>
       <c r="B32" s="4">
@@ -1715,11 +1640,11 @@
         <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="A33" s="6">
         <v>4.33</v>
       </c>
       <c r="B33" s="4">
@@ -1735,12 +1660,12 @@
         <v>Ja</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>4.4550000000000001</v>
+      <c r="A34" s="6">
+        <v>4.4429999999999996</v>
       </c>
       <c r="B34" s="4">
         <v>50</v>
@@ -1755,11 +1680,11 @@
         <v>Ja</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
+      <c r="A35" s="6">
         <v>4.54</v>
       </c>
       <c r="B35" s="4">
@@ -1780,12 +1705,12 @@
         <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
-      <c r="I35" s="14" t="s">
-        <v>24</v>
+      <c r="I35" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
+      <c r="A36" s="6">
         <v>4.76</v>
       </c>
       <c r="B36" s="4">
@@ -1793,7 +1718,9 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
       <c r="F36" s="4">
         <v>20</v>
       </c>
@@ -1802,14 +1729,14 @@
       </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <v>Ja</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="15">
+      <c r="A37" s="6">
         <v>4.9400000000000004</v>
       </c>
       <c r="B37" s="4">
@@ -1817,7 +1744,9 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
       <c r="F37" s="4">
         <v>20</v>
       </c>
@@ -1826,14 +1755,14 @@
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+        <v>Ja</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>5.1100000000000003</v>
       </c>
       <c r="B38" s="4">
@@ -1849,11 +1778,11 @@
         <v>Ja</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="15">
+      <c r="A39" s="6">
         <v>5.14</v>
       </c>
       <c r="B39" s="4">
@@ -1874,12 +1803,12 @@
         <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
-      <c r="I39" s="14" t="s">
-        <v>55</v>
+      <c r="I39" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>5.18</v>
       </c>
       <c r="B40" s="4">
@@ -1895,11 +1824,11 @@
         <v>Ja</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>5.31</v>
       </c>
       <c r="B41" s="4">
@@ -1915,12 +1844,12 @@
         <v>Ja</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>5.3620000000000001</v>
+      <c r="A42" s="6">
+        <v>5.3550000000000004</v>
       </c>
       <c r="B42" s="4">
         <v>50</v>
@@ -1935,11 +1864,11 @@
         <v>Ja</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
+      <c r="A43" s="6">
         <v>5.66</v>
       </c>
       <c r="B43" s="4">
@@ -1958,12 +1887,12 @@
         <f t="shared" si="1"/>
         <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
-      <c r="I43" s="14" t="s">
-        <v>24</v>
+      <c r="I43" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>6.05</v>
       </c>
       <c r="B44" s="4">
@@ -1979,11 +1908,11 @@
         <v>Ja</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
+      <c r="A45" s="6">
         <v>6.08</v>
       </c>
       <c r="B45" s="4">
@@ -1991,7 +1920,9 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
       <c r="F45" s="4">
         <v>20</v>
       </c>
@@ -2000,14 +1931,14 @@
       </c>
       <c r="H45" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>53</v>
+        <v>Ja</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>6.16</v>
       </c>
       <c r="B46" s="4">
@@ -2023,11 +1954,11 @@
         <v>Ja</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>6.22</v>
       </c>
       <c r="B47" s="4">
@@ -2043,11 +1974,11 @@
         <v>Ja</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>6.26</v>
       </c>
       <c r="B48" s="4">
@@ -2063,11 +1994,11 @@
         <v>Ja</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>6.6</v>
       </c>
       <c r="B49" s="4">
@@ -2085,11 +2016,11 @@
         <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
+      <c r="A50" s="6">
         <v>6.8</v>
       </c>
       <c r="B50" s="4">
@@ -2105,11 +2036,11 @@
         <v>Ja</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
+      <c r="A51" s="6">
         <v>6.85</v>
       </c>
       <c r="B51" s="4">
@@ -2125,11 +2056,11 @@
         <v>Ja</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>7.03</v>
       </c>
       <c r="B52" s="4">
@@ -2143,15 +2074,15 @@
         <v>18</v>
       </c>
       <c r="H52" s="4" t="str">
-        <f t="shared" ref="H52:H83" si="2">IF(AND(E52=1,D52=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E52=1, ISBLANK(G52)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G52)), E52=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="1"/>
         <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="17">
+      <c r="A53" s="6">
         <v>7.41</v>
       </c>
       <c r="B53" s="4">
@@ -2159,7 +2090,9 @@
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
       <c r="F53" s="4">
         <v>20</v>
       </c>
@@ -2167,15 +2100,15 @@
         <v>19</v>
       </c>
       <c r="H53" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>7.62</v>
       </c>
       <c r="B54" s="4">
@@ -2189,15 +2122,15 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>7.92</v>
       </c>
       <c r="B55" s="4">
@@ -2209,15 +2142,15 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="10">
+      <c r="A56" s="6">
         <v>7.9770000000000003</v>
       </c>
       <c r="B56" s="4">
@@ -2229,15 +2162,15 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>7.99</v>
       </c>
       <c r="B57" s="4">
@@ -2251,15 +2184,15 @@
         <v>20</v>
       </c>
       <c r="H57" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>8.35</v>
       </c>
       <c r="B58" s="4">
@@ -2271,15 +2204,15 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+      <c r="A59" s="6">
         <v>8.3949999999999996</v>
       </c>
       <c r="B59" s="4">
@@ -2291,15 +2224,15 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>8.42</v>
       </c>
       <c r="B60" s="4">
@@ -2313,15 +2246,15 @@
         <v>21</v>
       </c>
       <c r="H60" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>8.68</v>
       </c>
       <c r="B61" s="4">
@@ -2333,15 +2266,15 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
+      <c r="A62" s="6">
         <v>8.8000000000000007</v>
       </c>
       <c r="B62" s="4">
@@ -2353,16 +2286,16 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
-        <v>8.89</v>
+      <c r="A63" s="6">
+        <v>8.99</v>
       </c>
       <c r="B63" s="4">
         <v>50</v>
@@ -2375,15 +2308,15 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="18">
+      <c r="A64" s="9">
         <v>9.0500000000000007</v>
       </c>
       <c r="B64" s="4">
@@ -2393,9 +2326,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="4">
-        <v>1</v>
-      </c>
+      <c r="E64" s="4"/>
       <c r="F64" s="4">
         <v>20</v>
       </c>
@@ -2403,377 +2334,397 @@
         <v>22</v>
       </c>
       <c r="H64" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
+        <f t="shared" si="1"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
       </c>
       <c r="I64" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>9.44</v>
+      </c>
+      <c r="B65" s="7">
+        <v>50</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7">
+        <v>22</v>
+      </c>
+      <c r="H65" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>9.58</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>9.61</v>
+      </c>
+      <c r="B67" s="7">
+        <v>1</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7">
+        <v>23</v>
+      </c>
+      <c r="H67" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>9.69</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="B69" s="7">
+        <v>50</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
-        <v>9.44</v>
-      </c>
-      <c r="B65" s="9">
-        <v>50</v>
-      </c>
-      <c r="C65" s="9">
-        <v>1</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="5">
-        <v>1</v>
-      </c>
-      <c r="F65" s="9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>9.76</v>
+      </c>
+      <c r="B70" s="7">
+        <v>50</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>9.84</v>
+      </c>
+      <c r="B71" s="7">
+        <v>50</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7">
         <v>20</v>
       </c>
-      <c r="G65" s="9">
-        <v>22</v>
-      </c>
-      <c r="H65" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
-        <v>9.58</v>
-      </c>
-      <c r="B66" s="9">
-        <v>1</v>
-      </c>
-      <c r="C66" s="9">
-        <v>1</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I66" s="5" t="s">
+      <c r="G71" s="7">
+        <v>24</v>
+      </c>
+      <c r="H71" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>9.86</v>
+      </c>
+      <c r="B72" s="7">
+        <v>15</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="B73" s="7">
+        <v>30</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="B74" s="7">
+        <v>50</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>10.11</v>
+      </c>
+      <c r="B75" s="7">
+        <v>50</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7">
+        <v>1</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>10.26</v>
+      </c>
+      <c r="B76" s="7">
+        <v>50</v>
+      </c>
+      <c r="C76" s="7">
+        <v>1</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>10.28</v>
+      </c>
+      <c r="B77" s="7">
+        <v>50</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>10.31</v>
+      </c>
+      <c r="B78" s="7">
+        <v>1</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>10.375</v>
+      </c>
+      <c r="B79" s="7">
+        <v>15</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
-        <v>9.61</v>
-      </c>
-      <c r="B67" s="9">
-        <v>1</v>
-      </c>
-      <c r="C67" s="9">
-        <v>1</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="9">
-        <v>20</v>
-      </c>
-      <c r="G67" s="9">
-        <v>23</v>
-      </c>
-      <c r="H67" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
-        <v>9.69</v>
-      </c>
-      <c r="B68" s="9">
-        <v>1</v>
-      </c>
-      <c r="C68" s="9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>10.44</v>
+      </c>
+      <c r="B80" s="7">
+        <v>15</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
+        <v>10.49</v>
+      </c>
+      <c r="B81" s="7">
         <v>0</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
-        <v>9.6969999999999992</v>
-      </c>
-      <c r="B69" s="9">
-        <v>50</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I69" s="5" t="s">
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="12">
-        <v>9.84</v>
-      </c>
-      <c r="B70" s="9">
-        <v>50</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9">
-        <v>1</v>
-      </c>
-      <c r="F70" s="9">
-        <v>20</v>
-      </c>
-      <c r="G70" s="9">
-        <v>24</v>
-      </c>
-      <c r="H70" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="8">
-        <v>9.86</v>
-      </c>
-      <c r="B71" s="9">
-        <v>15</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="B72" s="9">
-        <v>30</v>
-      </c>
-      <c r="C72" s="9">
-        <v>1</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="B73" s="9">
-        <v>50</v>
-      </c>
-      <c r="C73" s="9">
-        <v>1</v>
-      </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
-        <v>10.11</v>
-      </c>
-      <c r="B74" s="9">
-        <v>50</v>
-      </c>
-      <c r="C74" s="9">
-        <v>1</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
-        <v>10.26</v>
-      </c>
-      <c r="B75" s="9">
-        <v>50</v>
-      </c>
-      <c r="C75" s="9">
-        <v>1</v>
-      </c>
-      <c r="D75" s="9">
-        <v>1</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
-        <v>10.28</v>
-      </c>
-      <c r="B76" s="9">
-        <v>50</v>
-      </c>
-      <c r="C76" s="9">
-        <v>0</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
-        <v>10.31</v>
-      </c>
-      <c r="B77" s="9">
-        <v>1</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
-        <v>10.375</v>
-      </c>
-      <c r="B78" s="9">
-        <v>15</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
-        <v>10.44</v>
-      </c>
-      <c r="B79" s="9">
-        <v>15</v>
-      </c>
-      <c r="C79" s="9">
-        <v>1</v>
-      </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="12">
-        <v>10.49</v>
-      </c>
-      <c r="B80" s="9">
-        <v>0</v>
-      </c>
-      <c r="C80" s="9">
-        <v>1</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ja</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H80">
+  <conditionalFormatting sqref="H1:H81">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",H1)))</formula>
     </cfRule>
@@ -2782,23 +2733,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B64" xr:uid="{CA0D034A-201C-4A03-9951-A6ACD3EDA1DA}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B20:B64 B1:B19" xr:uid="{BD9D7D84-0BA5-4926-8652-273A3CD1C25A}">
       <formula1>0.1</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C1:C64" xr:uid="{3DADC39B-828F-4998-9642-228BC5A2A10F}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Verfügt der nächste Abschnitt über DWPT?: 1_x000a_keine DWPT-Infrastruktur: 0" sqref="C20:C64 C1:C19" xr:uid="{4740A8D7-E9BF-458C-8D5B-1EB8D774E7DE}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D1:D64" xr:uid="{038BE05E-1E44-4616-A735-EAE1841C04F6}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Ampel: 1_x000a_keine Ampel: 0" sqref="D20:D64 D1:D19" xr:uid="{6D7D2375-F861-428F-8DF4-14C85FCFA8F7}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E1:E64" xr:uid="{4F542BD9-0983-4225-883B-1B5D6211243C}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1_x000a__x000a_Bushaltestelle: 1_x000a_keine Bushaltestelle: 0" sqref="E20:E64 E1:E19" xr:uid="{209B3E10-FF00-402D-9687-9F70EE182495}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="G1:G64" xr:uid="{F5778630-7695-48CC-8A33-BC58603319DA}">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="G20:G64 G1:G19" xr:uid="{91428318-69F1-410D-982B-DAF2F3132E7F}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
